--- a/admin_assets/exel-formate/DOC_FORMAT.xlsx
+++ b/admin_assets/exel-formate/DOC_FORMAT.xlsx
@@ -609,14 +609,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1:AV1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AS13" sqref="AS13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" customWidth="1"/>
+    <col min="46" max="46" width="22.85546875" customWidth="1"/>
+    <col min="47" max="47" width="22.5703125" customWidth="1"/>
+    <col min="48" max="48" width="26.85546875" customWidth="1"/>
     <col min="77" max="77" width="14" customWidth="1"/>
     <col min="78" max="78" width="19.28515625" customWidth="1"/>
     <col min="79" max="79" width="16.28515625" customWidth="1"/>

--- a/admin_assets/exel-formate/DOC_FORMAT.xlsx
+++ b/admin_assets/exel-formate/DOC_FORMAT.xlsx
@@ -2,13 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Back end details" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -270,8 +271,10 @@
   <fonts count="3">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -316,7 +319,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -395,7 +398,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -430,7 +432,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -607,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CD1"/>
+  <dimension ref="A1:CE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AS13" sqref="AS13"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="BZ1" sqref="BZ1:BZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -621,15 +622,15 @@
     <col min="46" max="46" width="22.85546875" customWidth="1"/>
     <col min="47" max="47" width="22.5703125" customWidth="1"/>
     <col min="48" max="48" width="26.85546875" customWidth="1"/>
-    <col min="77" max="77" width="14" customWidth="1"/>
-    <col min="78" max="78" width="19.28515625" customWidth="1"/>
-    <col min="79" max="79" width="16.28515625" customWidth="1"/>
-    <col min="80" max="80" width="19.42578125" customWidth="1"/>
-    <col min="81" max="81" width="18.42578125" customWidth="1"/>
-    <col min="82" max="82" width="28.28515625" customWidth="1"/>
+    <col min="77" max="78" width="14" customWidth="1"/>
+    <col min="79" max="79" width="19.28515625" customWidth="1"/>
+    <col min="80" max="80" width="16.28515625" customWidth="1"/>
+    <col min="81" max="81" width="19.42578125" customWidth="1"/>
+    <col min="82" max="82" width="18.42578125" customWidth="1"/>
+    <col min="83" max="83" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82">
+    <row r="1" spans="1:83">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,83 +862,48 @@
       <c r="BY1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/admin_assets/exel-formate/DOC_FORMAT.xlsx
+++ b/admin_assets/exel-formate/DOC_FORMAT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Entity Name: *</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>Active Status Id: *</t>
+  </si>
+  <si>
+    <t>Data Status: *</t>
+  </si>
+  <si>
+    <t>Data Status id</t>
   </si>
 </sst>
 </file>
@@ -608,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CE1"/>
+  <dimension ref="A1:CF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
-      <selection activeCell="BZ1" sqref="BZ1:BZ1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
+      <selection activeCell="CF4" sqref="CF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -628,9 +634,10 @@
     <col min="81" max="81" width="19.42578125" customWidth="1"/>
     <col min="82" max="82" width="18.42578125" customWidth="1"/>
     <col min="83" max="83" width="28.28515625" customWidth="1"/>
+    <col min="84" max="84" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83">
+    <row r="1" spans="1:84">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +869,9 @@
       <c r="BY1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1"/>
+      <c r="BZ1" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="CA1" s="2" t="s">
         <v>77</v>
       </c>
@@ -877,6 +886,9 @@
       </c>
       <c r="CE1" s="2" t="s">
         <v>81</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/admin_assets/exel-formate/DOC_FORMAT.xlsx
+++ b/admin_assets/exel-formate/DOC_FORMAT.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Wbo_fretusfolks\admin_assets\exel-formate\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2C4ACD-42BA-4C76-AD61-66E3B496610C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -267,8 +273,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +287,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -320,6 +327,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -366,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,9 +413,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,6 +465,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -607,30 +658,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CE1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
-      <selection activeCell="BZ1" sqref="BZ1:BZ1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.7109375" customWidth="1"/>
-    <col min="46" max="46" width="22.85546875" customWidth="1"/>
-    <col min="47" max="47" width="22.5703125" customWidth="1"/>
-    <col min="48" max="48" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" customWidth="1"/>
+    <col min="14" max="14" width="22.5546875" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" customWidth="1"/>
+    <col min="18" max="18" width="19.5546875" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="20" max="20" width="17.44140625" customWidth="1"/>
+    <col min="21" max="21" width="26.88671875" customWidth="1"/>
+    <col min="22" max="22" width="20.44140625" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" customWidth="1"/>
+    <col min="24" max="24" width="18.88671875" customWidth="1"/>
+    <col min="25" max="25" width="18.77734375" customWidth="1"/>
+    <col min="26" max="26" width="31.5546875" customWidth="1"/>
+    <col min="27" max="27" width="16" customWidth="1"/>
+    <col min="28" max="28" width="16.77734375" customWidth="1"/>
+    <col min="29" max="29" width="17.109375" customWidth="1"/>
+    <col min="30" max="30" width="17.44140625" customWidth="1"/>
+    <col min="31" max="31" width="16.88671875" customWidth="1"/>
+    <col min="32" max="32" width="20.33203125" customWidth="1"/>
+    <col min="33" max="33" width="47" customWidth="1"/>
+    <col min="34" max="34" width="43.5546875" customWidth="1"/>
+    <col min="35" max="35" width="29.5546875" customWidth="1"/>
+    <col min="36" max="36" width="27.77734375" customWidth="1"/>
+    <col min="37" max="37" width="30.6640625" customWidth="1"/>
+    <col min="38" max="38" width="30.109375" customWidth="1"/>
+    <col min="39" max="39" width="29.88671875" customWidth="1"/>
+    <col min="40" max="40" width="26.21875" customWidth="1"/>
+    <col min="41" max="41" width="29.109375" customWidth="1"/>
+    <col min="42" max="42" width="30.109375" customWidth="1"/>
+    <col min="43" max="43" width="22.109375" customWidth="1"/>
+    <col min="44" max="44" width="19.5546875" customWidth="1"/>
+    <col min="45" max="45" width="17.6640625" customWidth="1"/>
+    <col min="46" max="46" width="22.88671875" customWidth="1"/>
+    <col min="47" max="47" width="22.5546875" customWidth="1"/>
+    <col min="48" max="48" width="26.88671875" customWidth="1"/>
+    <col min="49" max="49" width="14.44140625" customWidth="1"/>
+    <col min="50" max="50" width="15.33203125" customWidth="1"/>
+    <col min="51" max="51" width="12.88671875" customWidth="1"/>
+    <col min="52" max="52" width="16.77734375" customWidth="1"/>
+    <col min="53" max="53" width="17.6640625" customWidth="1"/>
+    <col min="54" max="54" width="18.109375" customWidth="1"/>
+    <col min="55" max="55" width="26.44140625" customWidth="1"/>
+    <col min="56" max="56" width="25.6640625" customWidth="1"/>
+    <col min="57" max="57" width="16.21875" customWidth="1"/>
+    <col min="58" max="58" width="24.33203125" customWidth="1"/>
+    <col min="59" max="59" width="25.5546875" customWidth="1"/>
+    <col min="60" max="60" width="25.44140625" customWidth="1"/>
+    <col min="61" max="61" width="24.77734375" customWidth="1"/>
+    <col min="62" max="62" width="15.44140625" customWidth="1"/>
+    <col min="63" max="63" width="25.33203125" customWidth="1"/>
+    <col min="64" max="64" width="26.33203125" customWidth="1"/>
+    <col min="65" max="65" width="32.5546875" customWidth="1"/>
+    <col min="66" max="66" width="24.33203125" customWidth="1"/>
+    <col min="67" max="67" width="24" customWidth="1"/>
+    <col min="68" max="68" width="25.88671875" customWidth="1"/>
+    <col min="69" max="69" width="21.88671875" customWidth="1"/>
+    <col min="70" max="70" width="22.44140625" customWidth="1"/>
+    <col min="71" max="71" width="21.88671875" customWidth="1"/>
+    <col min="72" max="72" width="17.21875" customWidth="1"/>
+    <col min="73" max="73" width="17.44140625" customWidth="1"/>
+    <col min="74" max="74" width="24.33203125" customWidth="1"/>
+    <col min="75" max="75" width="20.44140625" customWidth="1"/>
+    <col min="76" max="76" width="18.88671875" customWidth="1"/>
     <col min="77" max="78" width="14" customWidth="1"/>
-    <col min="79" max="79" width="19.28515625" customWidth="1"/>
-    <col min="80" max="80" width="16.28515625" customWidth="1"/>
-    <col min="81" max="81" width="19.42578125" customWidth="1"/>
-    <col min="82" max="82" width="18.42578125" customWidth="1"/>
-    <col min="83" max="83" width="28.28515625" customWidth="1"/>
+    <col min="79" max="79" width="19.33203125" customWidth="1"/>
+    <col min="80" max="80" width="16.33203125" customWidth="1"/>
+    <col min="81" max="81" width="19.44140625" customWidth="1"/>
+    <col min="82" max="82" width="18.44140625" customWidth="1"/>
+    <col min="83" max="83" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,24 +1004,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/admin_assets/exel-formate/DOC_FORMAT.xlsx
+++ b/admin_assets/exel-formate/DOC_FORMAT.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Wbo_fretusfolks\admin_assets\exel-formate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2C4ACD-42BA-4C76-AD61-66E3B496610C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AFCE45-9813-42AE-A326-B7866E470A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Entity Name: *</t>
   </si>
@@ -268,13 +276,25 @@
   </si>
   <si>
     <t>Active Status Id: *</t>
+  </si>
+  <si>
+    <t>Data Status: *</t>
+  </si>
+  <si>
+    <t>Data Status Id:*</t>
+  </si>
+  <si>
+    <t>Dcs-Approval Id: *</t>
+  </si>
+  <si>
+    <t>Dcs-Approval</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +315,14 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -317,10 +345,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CE1"/>
+  <dimension ref="A1:CJ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" workbookViewId="0">
+      <selection activeCell="CG1" sqref="CG1:CG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,9 +776,14 @@
     <col min="81" max="81" width="19.44140625" customWidth="1"/>
     <col min="82" max="82" width="18.44140625" customWidth="1"/>
     <col min="83" max="83" width="28.33203125" customWidth="1"/>
+    <col min="84" max="84" width="19.33203125" customWidth="1"/>
+    <col min="85" max="85" width="6.109375" customWidth="1"/>
+    <col min="86" max="86" width="5.77734375" customWidth="1"/>
+    <col min="87" max="87" width="15.5546875" customWidth="1"/>
+    <col min="88" max="88" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -981,7 +1015,9 @@
       <c r="BY1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1"/>
+      <c r="BZ1" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="CA1" s="2" t="s">
         <v>77</v>
       </c>
@@ -996,10 +1032,21 @@
       </c>
       <c r="CE1" s="2" t="s">
         <v>81</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="3"/>
+      <c r="CI1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
